--- a/resources/Legacy & Enhanced Report.xlsx
+++ b/resources/Legacy & Enhanced Report.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="IP" sheetId="1" r:id="rId1"/>
-    <sheet name="OP" sheetId="2" r:id="rId2"/>
+    <sheet name="IP1" sheetId="1" r:id="rId1"/>
+    <sheet name="IP" sheetId="4" r:id="rId2"/>
+    <sheet name="OP" sheetId="5" r:id="rId3"/>
+    <sheet name="OP2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="213">
   <si>
     <t>Report Name</t>
   </si>
@@ -40,697 +42,625 @@
     <t>Coder Information</t>
   </si>
   <si>
+    <t>DRG Listing by Payer</t>
+  </si>
+  <si>
+    <t>Financial Class Mapping Information</t>
+  </si>
+  <si>
+    <t>Inpatient Flag Information</t>
+  </si>
+  <si>
+    <t>Inpatient Flag Information by Facility</t>
+  </si>
+  <si>
+    <t>Patient Status Mapping Information</t>
+  </si>
+  <si>
+    <t>Data Comparison</t>
+  </si>
+  <si>
+    <t>PEPPER Report</t>
+  </si>
+  <si>
+    <t>Case Listing</t>
+  </si>
+  <si>
+    <t>Case Version Comparison</t>
+  </si>
+  <si>
+    <t>Detailed Case Listing</t>
+  </si>
+  <si>
+    <t>Case Mix Index (CMI) Analysis</t>
+  </si>
+  <si>
+    <t>Case Mix Index (CMI) Comparison</t>
+  </si>
+  <si>
+    <t>Case-Mix by Payer by Month</t>
+  </si>
+  <si>
+    <t>Medicare Case-Mix by Month</t>
+  </si>
+  <si>
+    <t>Discharges by Grouper Version - DRG</t>
+  </si>
+  <si>
+    <t>DRG Change Impact</t>
+  </si>
+  <si>
+    <t>DRG Clinical Profile</t>
+  </si>
+  <si>
+    <t>DRG Contribution to CMI</t>
+  </si>
+  <si>
+    <t>DRG Frequency</t>
+  </si>
+  <si>
+    <t>DRG Summary by Grouper Version - MDC</t>
+  </si>
+  <si>
+    <t>Medicare Post-Acute Care (PAC) DRG Frequency</t>
+  </si>
+  <si>
+    <t>Summary by Primary Flag</t>
+  </si>
+  <si>
+    <t>Summary by Primary Flag with Revision Information</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Diagnosis Analysis by Present on Admission(POA)</t>
+  </si>
+  <si>
+    <t>Diagnosis Code Usage by Payer</t>
+  </si>
+  <si>
+    <t>Medicare Hospital-Acquired Conditions</t>
+  </si>
+  <si>
+    <t>Present on Admission(POA) Comparison</t>
+  </si>
+  <si>
+    <t>Principal Procedures</t>
+  </si>
+  <si>
+    <t>Top 50 CC/MCC Diagnoses</t>
+  </si>
+  <si>
+    <t>Top 50 Diagnoses by Present on Admission(POA)</t>
+  </si>
+  <si>
+    <t>Cases Processed on Import</t>
+  </si>
+  <si>
+    <t>Data Validation</t>
+  </si>
+  <si>
+    <t>IP Worksheet</t>
+  </si>
+  <si>
+    <t>Average Length of Stay by Payer by Month</t>
+  </si>
+  <si>
+    <t>Case Change Results</t>
+  </si>
+  <si>
+    <t>Coding-DRG Accuracy Analysis</t>
+  </si>
+  <si>
+    <t>Coding-DRG Review Summary</t>
+  </si>
+  <si>
+    <t>Performance Metrics</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Readmissions</t>
+  </si>
+  <si>
+    <t>SMART Case Review Results</t>
+  </si>
+  <si>
+    <t>SMART Report Card</t>
+  </si>
+  <si>
+    <t>SMART Results Summary</t>
+  </si>
+  <si>
+    <t>Case Status Reimbursement Detail</t>
+  </si>
+  <si>
+    <t>Case Status Reimbursement Summary</t>
+  </si>
+  <si>
+    <t>CMI Reimbursement Summary by Attending Physician</t>
+  </si>
+  <si>
+    <t>Grouper Version Reimbursement Detail</t>
+  </si>
+  <si>
+    <t>Medicare Post-Acute Care (PAC) DRG Reimbursement</t>
+  </si>
+  <si>
+    <t>Medicare Post-Acute Care (PAC) Reimbursement Comparison</t>
+  </si>
+  <si>
+    <t>Reimbursement Change Summary</t>
+  </si>
+  <si>
+    <t>SMART Reimbursement Activity</t>
+  </si>
+  <si>
+    <t>Inpatient Enterprise Reports</t>
+  </si>
+  <si>
+    <t>DRG Contribution to Payer CMI</t>
+  </si>
+  <si>
+    <t>Enterprise Data Validation</t>
+  </si>
+  <si>
+    <t>SMART Results Summary with CMI by Facility</t>
+  </si>
+  <si>
+    <t>CMI Reimbursement Summary</t>
+  </si>
+  <si>
+    <t>Outpatient Standard Reports</t>
+  </si>
+  <si>
+    <t>Financial Class Information</t>
+  </si>
+  <si>
+    <t>Outpatient Flag Information</t>
+  </si>
+  <si>
+    <t>Outpatient Flag Information by Facility</t>
+  </si>
+  <si>
+    <t>Flag Comparison</t>
+  </si>
+  <si>
+    <t>Medicare Medical Necessity Flags</t>
+  </si>
+  <si>
+    <t>Visit Flag Summary</t>
+  </si>
+  <si>
+    <t>Frequency Analysis</t>
+  </si>
+  <si>
+    <t>Frequency Summary</t>
+  </si>
+  <si>
+    <t>Review Worksheet</t>
+  </si>
+  <si>
+    <t>Visits Processed on Import</t>
+  </si>
+  <si>
+    <t>Coder Profile</t>
+  </si>
+  <si>
+    <t>Evaluation &amp; Management Clinical Profile</t>
+  </si>
+  <si>
+    <t>Visit Summary</t>
+  </si>
+  <si>
+    <t>APC Reimbursement Visit Summary</t>
+  </si>
+  <si>
+    <t>Discrepancy Analysis</t>
+  </si>
+  <si>
+    <t>SMART Reimbursement Activity by Year</t>
+  </si>
+  <si>
+    <t>Detailed Visit Listing</t>
+  </si>
+  <si>
+    <t>Outpatient Enterprise Reports</t>
+  </si>
+  <si>
+    <t>CCI Flags by Body System</t>
+  </si>
+  <si>
+    <t>Visit Reimbursement Summary</t>
+  </si>
+  <si>
+    <t>Flag Rate by Facility by Month</t>
+  </si>
+  <si>
+    <t>Attending Physician Frequency by DRG</t>
+  </si>
+  <si>
+    <t>Jon_automation_test_pls_do_not_change_it</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>JonTestPlsDoNotChangeItPOA</t>
+  </si>
+  <si>
+    <t>JonTestPlsDoNotChangeItDRG</t>
+  </si>
+  <si>
+    <t>JonTestPlsDoNotChangeIt_SAIBR</t>
+  </si>
+  <si>
+    <t>JonTestPlsDoNotChangeIt_FlagInfor</t>
+  </si>
+  <si>
+    <t>JonTest_pls_do_not_delete_it</t>
+  </si>
+  <si>
+    <t>Jon_test_pls_do_do_change_Evaluation</t>
+  </si>
+  <si>
+    <t>DRG Change Condition Detail</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IPSTReport001</t>
+  </si>
+  <si>
+    <t>IPSTReport002</t>
+  </si>
+  <si>
+    <t>IPSTReport003</t>
+  </si>
+  <si>
+    <t>IPSTReport004</t>
+  </si>
+  <si>
+    <t>IPSTReport005</t>
+  </si>
+  <si>
+    <t>IPSTReport006</t>
+  </si>
+  <si>
+    <t>IPSTReport007</t>
+  </si>
+  <si>
+    <t>IPSTReport008</t>
+  </si>
+  <si>
+    <t>IPSTReport009</t>
+  </si>
+  <si>
+    <t>IPSTReport010</t>
+  </si>
+  <si>
+    <t>IPSTReport011</t>
+  </si>
+  <si>
+    <t>IPSTReport012</t>
+  </si>
+  <si>
+    <t>IPSTReport013</t>
+  </si>
+  <si>
+    <t>IPSTReport014</t>
+  </si>
+  <si>
+    <t>IPSTReport015</t>
+  </si>
+  <si>
+    <t>IPSTReport016</t>
+  </si>
+  <si>
+    <t>IPSTReport017</t>
+  </si>
+  <si>
+    <t>IPSTReport018</t>
+  </si>
+  <si>
+    <t>IPSTReport019</t>
+  </si>
+  <si>
+    <t>IPSTReport020</t>
+  </si>
+  <si>
+    <t>IPSTReport021</t>
+  </si>
+  <si>
+    <t>IPSTReport022</t>
+  </si>
+  <si>
+    <t>IPSTReport023</t>
+  </si>
+  <si>
+    <t>IPSTReport024</t>
+  </si>
+  <si>
+    <t>IPSTReport026</t>
+  </si>
+  <si>
+    <t>IPSTReport027</t>
+  </si>
+  <si>
+    <t>IPSTReport028</t>
+  </si>
+  <si>
+    <t>IPSTReport029</t>
+  </si>
+  <si>
+    <t>IPSTReport030</t>
+  </si>
+  <si>
+    <t>IPSTReport031</t>
+  </si>
+  <si>
+    <t>IPSTReport032</t>
+  </si>
+  <si>
+    <t>IPSTReport033</t>
+  </si>
+  <si>
+    <t>IPSTReport034</t>
+  </si>
+  <si>
+    <t>IPSTReport035</t>
+  </si>
+  <si>
+    <t>IPSTReport036</t>
+  </si>
+  <si>
+    <t>IPSTReport037</t>
+  </si>
+  <si>
+    <t>IPSTReport038</t>
+  </si>
+  <si>
+    <t>IPSTReport039</t>
+  </si>
+  <si>
+    <t>IPSTReport040</t>
+  </si>
+  <si>
+    <t>IPSTReport041</t>
+  </si>
+  <si>
+    <t>IPSTReport042</t>
+  </si>
+  <si>
+    <t>IPSTReport043</t>
+  </si>
+  <si>
+    <t>IPSTReport044</t>
+  </si>
+  <si>
+    <t>IPSTReport045</t>
+  </si>
+  <si>
+    <t>IPSTReport047</t>
+  </si>
+  <si>
+    <t>IPSTReport048</t>
+  </si>
+  <si>
+    <t>IPSTReport049</t>
+  </si>
+  <si>
+    <t>IPSTReport050</t>
+  </si>
+  <si>
+    <t>IPSTReport051</t>
+  </si>
+  <si>
+    <t>IPSTReport052</t>
+  </si>
+  <si>
+    <t>IPSTReport053</t>
+  </si>
+  <si>
+    <t>IPSTReport054</t>
+  </si>
+  <si>
+    <t>IPSTReport055</t>
+  </si>
+  <si>
+    <t>IPSTReport056</t>
+  </si>
+  <si>
+    <t>IPSTReport058</t>
+  </si>
+  <si>
+    <t>IPSTReport059</t>
+  </si>
+  <si>
+    <t>IPENReport062</t>
+  </si>
+  <si>
+    <t>IPENReport063</t>
+  </si>
+  <si>
+    <t>IPENReport064</t>
+  </si>
+  <si>
+    <t>IPENReport065</t>
+  </si>
+  <si>
+    <t>IPENReport066</t>
+  </si>
+  <si>
+    <t>IPENReport067</t>
+  </si>
+  <si>
+    <t>IPENReport070</t>
+  </si>
+  <si>
+    <t>IPENReport071</t>
+  </si>
+  <si>
+    <t>IPENReport072</t>
+  </si>
+  <si>
+    <t>IPENReport073</t>
+  </si>
+  <si>
+    <t>IPENReport074</t>
+  </si>
+  <si>
+    <t>IPENReport075</t>
+  </si>
+  <si>
+    <t>IPENReport076</t>
+  </si>
+  <si>
+    <t>IPENReport077</t>
+  </si>
+  <si>
+    <t>IPENReport078</t>
+  </si>
+  <si>
+    <t>IPENReport079</t>
+  </si>
+  <si>
+    <t>IPENReport080</t>
+  </si>
+  <si>
+    <t>IPENReport081</t>
+  </si>
+  <si>
+    <t>IPENReport082</t>
+  </si>
+  <si>
+    <t>IPENReport083</t>
+  </si>
+  <si>
+    <t>IPENReport084</t>
+  </si>
+  <si>
+    <t>IPENReport085</t>
+  </si>
+  <si>
+    <t>IPENReport087</t>
+  </si>
+  <si>
+    <t>IPENReport088</t>
+  </si>
+  <si>
+    <t>IPSTReport060</t>
+  </si>
+  <si>
+    <t>IPSTReport061</t>
+  </si>
+  <si>
+    <t>OPSTReport090</t>
+  </si>
+  <si>
+    <t>OPSTReport091</t>
+  </si>
+  <si>
+    <t>OPSTReport092</t>
+  </si>
+  <si>
+    <t>OPSTReport093</t>
+  </si>
+  <si>
+    <t>OPSTReport095</t>
+  </si>
+  <si>
+    <t>OPSTReport096</t>
+  </si>
+  <si>
+    <t>OPSTReport097</t>
+  </si>
+  <si>
+    <t>OPSTReport099</t>
+  </si>
+  <si>
+    <t>OPSTReport100</t>
+  </si>
+  <si>
+    <t>OPSTReport101</t>
+  </si>
+  <si>
+    <t>OPSTReport102</t>
+  </si>
+  <si>
+    <t>OPSTReport103</t>
+  </si>
+  <si>
+    <t>OPSTReport104</t>
+  </si>
+  <si>
+    <t>OPSTReport105</t>
+  </si>
+  <si>
+    <t>OPSTReport106</t>
+  </si>
+  <si>
+    <t>OPSTReport109</t>
+  </si>
+  <si>
+    <t>OPSTReport110</t>
+  </si>
+  <si>
+    <t>OPSTReport111</t>
+  </si>
+  <si>
+    <t>OPSTReport114</t>
+  </si>
+  <si>
+    <t>OPSTReport115</t>
+  </si>
+  <si>
+    <t>OPSTReport116</t>
+  </si>
+  <si>
+    <t>OPSTReport117</t>
+  </si>
+  <si>
+    <t>OPSTReport118</t>
+  </si>
+  <si>
+    <t>OPSTReport119</t>
+  </si>
+  <si>
+    <t>OPENReport120</t>
+  </si>
+  <si>
+    <t>OPENReport121</t>
+  </si>
+  <si>
+    <t>OPENReport122</t>
+  </si>
+  <si>
+    <t>OPENReport123</t>
+  </si>
+  <si>
+    <t>OPENReport124</t>
+  </si>
+  <si>
+    <t>OPENReport125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brief Visit Listing </t>
+  </si>
+  <si>
+    <t>Reimbursement Version Detail</t>
+  </si>
+  <si>
     <t>Flag Management Setting Audit</t>
   </si>
   <si>
-    <t>DRG Listing by Payer</t>
-  </si>
-  <si>
-    <t>Financial Class Mapping Information</t>
-  </si>
-  <si>
-    <t>Inpatient Flag Information</t>
-  </si>
-  <si>
-    <t>Inpatient Flag Information by Facility</t>
-  </si>
-  <si>
-    <t>Patient Status Mapping Information</t>
-  </si>
-  <si>
-    <t>Data Comparison</t>
-  </si>
-  <si>
-    <t>PEPPER Report</t>
-  </si>
-  <si>
-    <t>Case Listing</t>
-  </si>
-  <si>
-    <t>Case Version Comparison</t>
-  </si>
-  <si>
-    <t>Detailed Case Listing</t>
-  </si>
-  <si>
-    <t>Case Mix Index (CMI) Analysis</t>
-  </si>
-  <si>
-    <t>Case Mix Index (CMI) Comparison</t>
-  </si>
-  <si>
-    <t>Case-Mix by Payer by Month</t>
-  </si>
-  <si>
-    <t>Medicare Case-Mix by Month</t>
-  </si>
-  <si>
-    <t>Discharges by Grouper Version - DRG</t>
-  </si>
-  <si>
-    <t>DRG Change Impact</t>
-  </si>
-  <si>
-    <t>DRG Clinical Profile</t>
-  </si>
-  <si>
-    <t>DRG Contribution to CMI</t>
-  </si>
-  <si>
-    <t>DRG Frequency</t>
-  </si>
-  <si>
-    <t>DRG Illness Severity Score Comparison</t>
-  </si>
-  <si>
-    <t>DRG Summary by Grouper Version - MDC</t>
-  </si>
-  <si>
-    <t>Medicare Post-Acute Care (PAC) DRG Frequency</t>
-  </si>
-  <si>
-    <t>Summary by Primary Flag</t>
-  </si>
-  <si>
-    <t>Summary by Primary Flag with Revision Information</t>
-  </si>
-  <si>
-    <t>Frequency</t>
-  </si>
-  <si>
-    <t>Diagnosis Analysis by Present on Admission(POA)</t>
-  </si>
-  <si>
-    <t>Diagnosis Code Usage by Payer</t>
-  </si>
-  <si>
-    <t>Medicare Hospital-Acquired Conditions</t>
-  </si>
-  <si>
-    <t>Present on Admission(POA) Comparison</t>
-  </si>
-  <si>
-    <t>Principal Procedures</t>
-  </si>
-  <si>
-    <t>Top 50 CC/MCC Diagnoses</t>
-  </si>
-  <si>
-    <t>Top 50 Diagnoses by Present on Admission(POA)</t>
-  </si>
-  <si>
-    <t>Cases Processed on Import</t>
-  </si>
-  <si>
-    <t>Data Validation</t>
-  </si>
-  <si>
-    <t>IP Worksheet</t>
-  </si>
-  <si>
-    <t>Average Length of Stay by Payer by Month</t>
-  </si>
-  <si>
-    <t>Case Change Results</t>
-  </si>
-  <si>
-    <t>Coding-DRG Accuracy Analysis</t>
-  </si>
-  <si>
-    <t>Coding-DRG Review Summary</t>
-  </si>
-  <si>
-    <t>Illness Severity Score by Payer by Month</t>
-  </si>
-  <si>
-    <t>Performance Metrics</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Readmissions</t>
-  </si>
-  <si>
-    <t>SMART Case Review Results</t>
-  </si>
-  <si>
-    <t>SMART Report Card</t>
-  </si>
-  <si>
-    <t>SMART Results Summary</t>
-  </si>
-  <si>
-    <t>Case Status Reimbursement Detail</t>
-  </si>
-  <si>
-    <t>Case Status Reimbursement Summary</t>
-  </si>
-  <si>
-    <t>CMI Reimbursement Summary by Attending Physician</t>
-  </si>
-  <si>
-    <t>Grouper Version Reimbursement Detail</t>
-  </si>
-  <si>
-    <t>Medicare HAC Potential Impact</t>
-  </si>
-  <si>
-    <t>Medicare Post-Acute Care (PAC) DRG Reimbursement</t>
-  </si>
-  <si>
-    <t>Medicare Post-Acute Care (PAC) Reimbursement Comparison</t>
-  </si>
-  <si>
-    <t>Reimbursement Change Summary</t>
-  </si>
-  <si>
-    <t>SMART Reimbursement Activity</t>
-  </si>
-  <si>
-    <t>Inpatient Enterprise Reports</t>
-  </si>
-  <si>
-    <t>DRG Contribution to Payer CMI</t>
-  </si>
-  <si>
-    <t>DRG Illness Severity Score Comparison by Payer</t>
-  </si>
-  <si>
-    <t>Medicare Post-Acute Care (PAC) DRG Frequency by Patient Status</t>
-  </si>
-  <si>
-    <t>Enterprise Data Validation</t>
-  </si>
-  <si>
-    <t>SMART Results Summary with CMI by Facility</t>
-  </si>
-  <si>
-    <t>CMI Reimbursement Summary</t>
-  </si>
-  <si>
-    <t>Outpatient Standard Reports</t>
-  </si>
-  <si>
-    <t>APC Reimbursement Information</t>
-  </si>
-  <si>
-    <t>Financial Class Information</t>
-  </si>
-  <si>
-    <t>Outpatient Flag Information</t>
-  </si>
-  <si>
-    <t>Outpatient Flag Information by Facility</t>
-  </si>
-  <si>
-    <t>APC Contribution to SMI by Payer</t>
-  </si>
-  <si>
-    <t>Flag Comparison</t>
-  </si>
-  <si>
-    <t>Medicare Medical Necessity Flags</t>
-  </si>
-  <si>
-    <t>Payer OCE Claim Disposition</t>
-  </si>
-  <si>
-    <t>Visit Flag Summary</t>
-  </si>
-  <si>
-    <t>Frequency Analysis</t>
-  </si>
-  <si>
-    <t>Frequency Summary</t>
-  </si>
-  <si>
-    <t>Review Worksheet</t>
-  </si>
-  <si>
-    <t>Visits Processed on Import</t>
-  </si>
-  <si>
-    <t>Coder Profile</t>
-  </si>
-  <si>
-    <t>Evaluation &amp; Management Clinical Profile</t>
-  </si>
-  <si>
-    <t>Visit Change Results</t>
-  </si>
-  <si>
-    <t>Visit Selection Summary</t>
-  </si>
-  <si>
-    <t>Visit Summary</t>
-  </si>
-  <si>
-    <t>APC Reimbursement Visit Summary</t>
-  </si>
-  <si>
-    <t>Discrepancy Analysis</t>
-  </si>
-  <si>
-    <t>Estimated Line Item Reimbursement Impact Summary by Body System</t>
-  </si>
-  <si>
-    <t>Estimated Reimbursement Impact Summary</t>
-  </si>
-  <si>
-    <t>Reimbursement Version Detail</t>
-  </si>
-  <si>
-    <t>SMART Reimbursement Activity by Year</t>
-  </si>
-  <si>
-    <t>Brief Visit Listing</t>
-  </si>
-  <si>
-    <t>Detailed Visit Listing</t>
-  </si>
-  <si>
-    <t>Outpatient Enterprise Reports</t>
-  </si>
-  <si>
-    <t>CCI Flags by Body System</t>
-  </si>
-  <si>
-    <t>Visit Reimbursement Summary</t>
-  </si>
-  <si>
-    <t>Flag Rate by Facility by Month</t>
-  </si>
-  <si>
-    <t>Attending Physician Frequency by DRG</t>
-  </si>
-  <si>
-    <t>Jon_automation_test_pls_do_not_change_it</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>JonTestPlsDoNotChangeItPOA</t>
-  </si>
-  <si>
-    <t>JonTestPlsDoNotChangeItDRG</t>
-  </si>
-  <si>
-    <t>JonTestPlsDoNotChangeIt_SAIBR</t>
-  </si>
-  <si>
-    <t>JonTestPlsDoNotChangeIt_FlagInfor</t>
-  </si>
-  <si>
-    <t>Jon_test_PlsDoNotChange_APC</t>
-  </si>
-  <si>
-    <t>JonTest_pls_do_not_delete_it</t>
-  </si>
-  <si>
-    <t>Jon_test_pls_do_do_change_Evaluation</t>
-  </si>
-  <si>
-    <t>DRG Change Condition Detail</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IPSTReport001</t>
-  </si>
-  <si>
-    <t>IPSTReport002</t>
-  </si>
-  <si>
-    <t>IPSTReport003</t>
-  </si>
-  <si>
-    <t>IPSTReport004</t>
-  </si>
-  <si>
-    <t>IPSTReport005</t>
-  </si>
-  <si>
-    <t>IPSTReport006</t>
-  </si>
-  <si>
-    <t>IPSTReport007</t>
-  </si>
-  <si>
-    <t>IPSTReport008</t>
-  </si>
-  <si>
-    <t>IPSTReport009</t>
-  </si>
-  <si>
-    <t>IPSTReport010</t>
-  </si>
-  <si>
-    <t>IPSTReport011</t>
-  </si>
-  <si>
-    <t>IPSTReport012</t>
-  </si>
-  <si>
-    <t>IPSTReport013</t>
-  </si>
-  <si>
-    <t>IPSTReport014</t>
-  </si>
-  <si>
-    <t>IPSTReport015</t>
-  </si>
-  <si>
-    <t>IPSTReport016</t>
-  </si>
-  <si>
-    <t>IPSTReport017</t>
-  </si>
-  <si>
-    <t>IPSTReport018</t>
-  </si>
-  <si>
-    <t>IPSTReport019</t>
-  </si>
-  <si>
-    <t>IPSTReport020</t>
-  </si>
-  <si>
-    <t>IPSTReport021</t>
-  </si>
-  <si>
-    <t>IPSTReport022</t>
-  </si>
-  <si>
-    <t>IPSTReport023</t>
-  </si>
-  <si>
-    <t>IPSTReport024</t>
-  </si>
-  <si>
-    <t>IPSTReport025</t>
-  </si>
-  <si>
-    <t>IPSTReport026</t>
-  </si>
-  <si>
-    <t>IPSTReport027</t>
-  </si>
-  <si>
-    <t>IPSTReport028</t>
-  </si>
-  <si>
-    <t>IPSTReport029</t>
-  </si>
-  <si>
-    <t>IPSTReport030</t>
-  </si>
-  <si>
-    <t>IPSTReport031</t>
-  </si>
-  <si>
-    <t>IPSTReport032</t>
-  </si>
-  <si>
-    <t>IPSTReport033</t>
-  </si>
-  <si>
-    <t>IPSTReport034</t>
-  </si>
-  <si>
-    <t>IPSTReport035</t>
-  </si>
-  <si>
-    <t>IPSTReport036</t>
-  </si>
-  <si>
-    <t>IPSTReport037</t>
-  </si>
-  <si>
-    <t>IPSTReport038</t>
-  </si>
-  <si>
-    <t>IPSTReport039</t>
-  </si>
-  <si>
-    <t>IPSTReport040</t>
-  </si>
-  <si>
-    <t>IPSTReport041</t>
-  </si>
-  <si>
-    <t>IPSTReport042</t>
-  </si>
-  <si>
-    <t>IPSTReport043</t>
-  </si>
-  <si>
-    <t>IPSTReport044</t>
-  </si>
-  <si>
-    <t>IPSTReport045</t>
-  </si>
-  <si>
-    <t>IPSTReport046</t>
-  </si>
-  <si>
-    <t>IPSTReport047</t>
-  </si>
-  <si>
-    <t>IPSTReport048</t>
-  </si>
-  <si>
-    <t>IPSTReport049</t>
-  </si>
-  <si>
-    <t>IPSTReport050</t>
-  </si>
-  <si>
-    <t>IPSTReport051</t>
-  </si>
-  <si>
-    <t>IPSTReport052</t>
-  </si>
-  <si>
-    <t>IPSTReport053</t>
-  </si>
-  <si>
-    <t>IPSTReport054</t>
-  </si>
-  <si>
-    <t>IPSTReport055</t>
-  </si>
-  <si>
-    <t>IPSTReport056</t>
-  </si>
-  <si>
-    <t>IPSTReport057</t>
-  </si>
-  <si>
-    <t>IPSTReport058</t>
-  </si>
-  <si>
-    <t>IPSTReport059</t>
-  </si>
-  <si>
-    <t>IPENReport062</t>
-  </si>
-  <si>
-    <t>IPENReport063</t>
-  </si>
-  <si>
-    <t>IPENReport064</t>
-  </si>
-  <si>
-    <t>IPENReport065</t>
-  </si>
-  <si>
-    <t>IPENReport066</t>
-  </si>
-  <si>
-    <t>IPENReport067</t>
-  </si>
-  <si>
-    <t>IPENReport068</t>
-  </si>
-  <si>
-    <t>IPENReport069</t>
-  </si>
-  <si>
-    <t>IPENReport070</t>
-  </si>
-  <si>
-    <t>IPENReport071</t>
-  </si>
-  <si>
-    <t>IPENReport072</t>
-  </si>
-  <si>
-    <t>IPENReport073</t>
-  </si>
-  <si>
-    <t>IPENReport074</t>
-  </si>
-  <si>
-    <t>IPENReport075</t>
-  </si>
-  <si>
-    <t>IPENReport076</t>
-  </si>
-  <si>
-    <t>IPENReport077</t>
-  </si>
-  <si>
-    <t>IPENReport078</t>
-  </si>
-  <si>
-    <t>IPENReport079</t>
-  </si>
-  <si>
-    <t>IPENReport080</t>
-  </si>
-  <si>
-    <t>IPENReport081</t>
-  </si>
-  <si>
-    <t>IPENReport082</t>
-  </si>
-  <si>
-    <t>IPENReport083</t>
-  </si>
-  <si>
-    <t>IPENReport084</t>
-  </si>
-  <si>
-    <t>IPENReport085</t>
-  </si>
-  <si>
-    <t>IPENReport086</t>
-  </si>
-  <si>
-    <t>IPENReport087</t>
-  </si>
-  <si>
-    <t>IPENReport088</t>
-  </si>
-  <si>
-    <t>IPSTReport060</t>
-  </si>
-  <si>
-    <t>IPSTReport061</t>
-  </si>
-  <si>
-    <t>OPSTReport089</t>
-  </si>
-  <si>
-    <t>OPSTReport090</t>
-  </si>
-  <si>
-    <t>OPSTReport091</t>
-  </si>
-  <si>
-    <t>OPSTReport092</t>
-  </si>
-  <si>
-    <t>OPSTReport093</t>
-  </si>
-  <si>
-    <t>OPSTReport094</t>
-  </si>
-  <si>
-    <t>OPSTReport095</t>
-  </si>
-  <si>
-    <t>OPSTReport096</t>
-  </si>
-  <si>
-    <t>OPSTReport097</t>
-  </si>
-  <si>
-    <t>OPSTReport098</t>
-  </si>
-  <si>
-    <t>OPSTReport099</t>
-  </si>
-  <si>
-    <t>OPSTReport100</t>
-  </si>
-  <si>
-    <t>OPSTReport101</t>
-  </si>
-  <si>
-    <t>OPSTReport102</t>
-  </si>
-  <si>
-    <t>OPSTReport103</t>
-  </si>
-  <si>
-    <t>OPSTReport104</t>
-  </si>
-  <si>
-    <t>OPSTReport105</t>
-  </si>
-  <si>
-    <t>OPSTReport106</t>
-  </si>
-  <si>
-    <t>OPSTReport107</t>
-  </si>
-  <si>
-    <t>OPSTReport108</t>
-  </si>
-  <si>
-    <t>OPSTReport109</t>
-  </si>
-  <si>
-    <t>OPSTReport110</t>
-  </si>
-  <si>
-    <t>OPSTReport111</t>
-  </si>
-  <si>
-    <t>OPSTReport112</t>
-  </si>
-  <si>
-    <t>OPSTReport113</t>
-  </si>
-  <si>
-    <t>OPSTReport114</t>
-  </si>
-  <si>
-    <t>OPSTReport115</t>
-  </si>
-  <si>
-    <t>OPSTReport116</t>
-  </si>
-  <si>
-    <t>OPSTReport117</t>
-  </si>
-  <si>
-    <t>OPSTReport118</t>
-  </si>
-  <si>
-    <t>OPSTReport119</t>
-  </si>
-  <si>
-    <t>OPENReport120</t>
-  </si>
-  <si>
-    <t>OPENReport121</t>
-  </si>
-  <si>
-    <t>OPENReport122</t>
-  </si>
-  <si>
-    <t>OPENReport123</t>
-  </si>
-  <si>
-    <t>OPENReport124</t>
-  </si>
-  <si>
-    <t>OPENReport125</t>
+    <t xml:space="preserve">Profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRG Clinical Profile </t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1140,1242 +1070,1130 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+      <c r="C7" t="s">
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>32</v>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>31</v>
+        <v>133</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>181</v>
-      </c>
-      <c r="B73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
+        <v>163</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>184</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>66</v>
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D77" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>190</v>
-      </c>
-      <c r="B82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" t="s">
-        <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" t="s">
-        <v>62</v>
-      </c>
-      <c r="C83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>195</v>
-      </c>
-      <c r="B87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>197</v>
-      </c>
-      <c r="B89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E7 E65">
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="E9 E64">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2386,10 +2204,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2298,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2416,421 +2312,433 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
+        <v>81</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
